--- a/11-CollaborationList/Maxeler.xlsx
+++ b/11-CollaborationList/Maxeler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129BBD03-28E9-9446-991A-F2FF45D75294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C803237-323F-B049-93E3-1FC7AEB690DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{DCF9AB15-4AAE-104C-97FA-8D9237826EDC}"/>
   </bookViews>
@@ -91,7 +91,7 @@
     <t>Maxeler</t>
   </si>
   <si>
-    <t>Maxeler Technologies Limited, 3 Hammersmith Grove, London W6 0ND, UK</t>
+    <t>Maxeler Technologies Limited, 3 Hammersmith Grove, London, W6 0ND, UK</t>
   </si>
 </sst>
 </file>
@@ -655,9 +655,6 @@
   <dxfs count="16">
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -882,6 +879,9 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -897,24 +897,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B3C96C1A-0571-E64A-930E-772E58C828CB}" name="Table1" displayName="Table1" ref="A1:O2" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B3C96C1A-0571-E64A-930E-772E58C828CB}" name="Table1" displayName="Table1" ref="A1:O2" totalsRowShown="0" dataDxfId="15">
   <autoFilter ref="A1:O2" xr:uid="{B3C96C1A-0571-E64A-930E-772E58C828CB}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{ED54FD93-AB37-EA48-80FA-043908023E2C}" name="Title" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{B7D249A0-1477-8644-A5D4-54D5013BD202}" name="Name" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{4919BB4B-128A-0D4A-9ECF-0D3A92D32A37}" name="Surname" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{839BC177-9572-904D-A002-1E1BA70F834C}" name="Initials" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{2AD52F1D-926D-5647-A40C-E459B88A845E}" name="email address" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{406E644A-BF93-1545-942A-450CA12A6404}" name="Name on Publications " dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{A97A9F34-0D15-0848-A553-50D89E08EE84}" name="Organisation" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{6C6D5917-27B6-9E4D-AA9D-4495A114D198}" name="Address" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{25049967-47FC-7E40-A4A3-5C6E0DE5C65C}" name="Number of affiliations" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{E2973B7E-0C3F-A64A-8444-3F4619791AF2}" name="Affiliation code" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{1803E71F-907D-DA41-8455-EEC71D5DA8E4}" name="Affiliation address" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{3D0BBA03-CA3F-934E-8C07-EFEC57AF31B2}" name="Affiliation code2" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{8E0BD0CF-141A-134C-87DD-D541E3776450}" name="Affiliation address3" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{C84ADE45-75F8-7A4A-A3AE-5229EB6C00BD}" name="ORCID " dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{3160FFB6-6BA9-B243-BF4F-BBFF4C504A40}" name="Role" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{ED54FD93-AB37-EA48-80FA-043908023E2C}" name="Title" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{B7D249A0-1477-8644-A5D4-54D5013BD202}" name="Name" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{4919BB4B-128A-0D4A-9ECF-0D3A92D32A37}" name="Surname" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{839BC177-9572-904D-A002-1E1BA70F834C}" name="Initials" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{2AD52F1D-926D-5647-A40C-E459B88A845E}" name="email address" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{406E644A-BF93-1545-942A-450CA12A6404}" name="Name on Publications " dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{A97A9F34-0D15-0848-A553-50D89E08EE84}" name="Organisation" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{6C6D5917-27B6-9E4D-AA9D-4495A114D198}" name="Address" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{25049967-47FC-7E40-A4A3-5C6E0DE5C65C}" name="Number of affiliations" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{E2973B7E-0C3F-A64A-8444-3F4619791AF2}" name="Affiliation code" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{1803E71F-907D-DA41-8455-EEC71D5DA8E4}" name="Affiliation address" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{3D0BBA03-CA3F-934E-8C07-EFEC57AF31B2}" name="Affiliation code2" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{8E0BD0CF-141A-134C-87DD-D541E3776450}" name="Affiliation address3" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{C84ADE45-75F8-7A4A-A3AE-5229EB6C00BD}" name="ORCID " dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{3160FFB6-6BA9-B243-BF4F-BBFF4C504A40}" name="Role" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1240,7 +1240,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
